--- a/DashEmpresa/lotes/ConsumoDiesel.xlsx
+++ b/DashEmpresa/lotes/ConsumoDiesel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117875\Downloads\1.- A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CRM\DashEmpresa\lotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>TIPO DE DOCUMENTO</t>
   </si>
   <si>
@@ -66,18 +63,6 @@
   </si>
   <si>
     <t>DIESEL</t>
-  </si>
-  <si>
-    <t>Gasolinera Venadillo</t>
-  </si>
-  <si>
-    <t>C125</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>A155</t>
   </si>
   <si>
     <t>Consumo Diesel</t>
@@ -294,25 +279,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +588,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,11 +608,11 @@
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9">
         <v>2</v>
@@ -646,7 +631,7 @@
       <c r="J2" s="4"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,29 +647,29 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="6"/>
       <c r="I4" s="13"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
       <c r="J5" s="14"/>
@@ -694,128 +679,41 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>43622</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>120</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="11">
-        <v>200</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>43622</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>150</v>
-      </c>
-      <c r="G8" s="11">
-        <v>3500</v>
-      </c>
-      <c r="H8" s="11">
-        <v>200</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43622</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>125</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3225</v>
-      </c>
-      <c r="H9" s="11">
-        <v>200</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
